--- a/Potencialus plagiatas/Data/excel Tickers.txt.xlsx
+++ b/Potencialus plagiatas/Data/excel Tickers.txt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JURGIS\Desktop\Potencialus plagiatas\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jurgis\Desktop\Automatic-article-Searcher\Potencialus plagiatas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="290">
   <si>
     <t>WFC</t>
   </si>
@@ -72,9 +72,6 @@
     <t>JPM</t>
   </si>
   <si>
-    <t>JPMorgan Chase</t>
-  </si>
-  <si>
     <t>PFE</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>Weatherford International</t>
   </si>
   <si>
-    <t>AK Steel Holding</t>
-  </si>
-  <si>
     <t>AKS</t>
   </si>
   <si>
@@ -315,12 +309,6 @@
     <t>FCAU</t>
   </si>
   <si>
-    <t>PBRA</t>
-  </si>
-  <si>
-    <t>United States Steel</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -333,12 +321,6 @@
     <t>Gerdau ADR</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Whiting Petroleum</t>
   </si>
   <si>
@@ -645,9 +627,6 @@
     <t>John Elkann, Sergio Marchionne</t>
   </si>
   <si>
-    <t>Pedro Parente, Ivan Monteiro</t>
-  </si>
-  <si>
     <t>David Sutherland, Mario Longhi</t>
   </si>
   <si>
@@ -663,9 +642,6 @@
     <t>Jorge Johannpeter, Andre Johannpeter</t>
   </si>
   <si>
-    <t>Marcelo Claure, Masayoshi Son</t>
-  </si>
-  <si>
     <t>James Volker</t>
   </si>
   <si>
@@ -858,13 +834,61 @@
     <t>Petrobras</t>
   </si>
   <si>
-    <t>Petróleo Brasileiro</t>
-  </si>
-  <si>
     <t>Barrick</t>
   </si>
   <si>
     <t>Weatherford</t>
+  </si>
+  <si>
+    <t>AK Steel</t>
+  </si>
+  <si>
+    <t>J.P. Morgan Chase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.P.Morgan, JPMorgan, </t>
+  </si>
+  <si>
+    <t>Yamana</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>Valeant</t>
+  </si>
+  <si>
+    <t>Fiat, Chrysler</t>
+  </si>
+  <si>
+    <t>U.S. Steel</t>
+  </si>
+  <si>
+    <t>Itau</t>
+  </si>
+  <si>
+    <t>Kinross</t>
+  </si>
+  <si>
+    <t>Gerdau</t>
+  </si>
+  <si>
+    <t>Citizens Financial, Citizens Bank</t>
+  </si>
+  <si>
+    <t>Michael Kors</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Exxon</t>
+  </si>
+  <si>
+    <t>Energy Transfer</t>
+  </si>
+  <si>
+    <t>Coke</t>
   </si>
 </sst>
 </file>
@@ -1561,13 +1585,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1578,6 +1595,13 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1621,8 +1645,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C1:D92" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
-  <autoFilter ref="C1:D92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="C1:D90" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="C1:D90"/>
   <tableColumns count="2">
     <tableColumn id="2" name="Key People" dataDxfId="1"/>
     <tableColumn id="1" name="Column1" dataDxfId="0"/>
@@ -1894,39 +1918,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1934,10 +1958,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
@@ -1948,38 +1972,38 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -1988,13 +2012,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,22 +2029,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,107 +2055,107 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -2140,24 +2164,28 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>196</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2167,861 +2195,861 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>224</v>
+        <v>52</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>226</v>
+        <v>113</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D68" s="6"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D74" s="6"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D80" s="6"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D86" s="6"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>161</v>
-      </c>
-      <c r="B91" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>163</v>
-      </c>
-      <c r="B92" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D92" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
